--- a/data/trans_bre/P25_8-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25_8-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>10,56</t>
+          <t>8,66</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,61</t>
+          <t>14,67</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>17,52</t>
+          <t>5,84</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>84,75%</t>
+          <t>17,2</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>93,5%</t>
+          <t>57,39%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>106,14%</t>
+          <t>139,77%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>35,0%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>154,91%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,51; 21,81</t>
+          <t>-8,27; 25,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 19,19</t>
+          <t>-1,66; 31,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,79; 49,54</t>
+          <t>-11,63; 25,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 290,1</t>
+          <t>0,36; 35,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,47; 394,19</t>
+          <t>-35,72; 376,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 539,24</t>
+          <t>-20,67; 914,23</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-45,26; 445,25</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-9,38; 1088,0</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,97</t>
+          <t>6,26</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>4,07</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,98</t>
+          <t>6,39</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>40,76%</t>
+          <t>9,03</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,19%</t>
+          <t>30,72%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>23,7%</t>
+          <t>27,44%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>35,43%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>48,46%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,08; 13,65</t>
+          <t>-3,04; 15,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,2; 8,07</t>
+          <t>-4,51; 11,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 14,38</t>
+          <t>-3,45; 15,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 100,59</t>
+          <t>-1,78; 18,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-31,39; 68,37</t>
+          <t>-12,13; 103,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-19,33; 86,19</t>
+          <t>-23,25; 117,12</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-15,33; 112,65</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-10,47; 128,36</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>-2,54</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>-3,03</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,86</t>
+          <t>3,53</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,5%</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,33%</t>
+          <t>-9,02%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>24,52%</t>
+          <t>-14,03%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>17,71%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>7,41%</t>
         </is>
       </c>
     </row>
@@ -802,39 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,18; 8,42</t>
+          <t>-15,35; 7,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,43; 8,33</t>
+          <t>-11,94; 6,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 12,53</t>
+          <t>-7,95; 13,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-29,13; 42,64</t>
+          <t>-9,21; 14,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-30,85; 52,25</t>
+          <t>-42,02; 33,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-14,17; 80,49</t>
+          <t>-44,36; 39,41</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-31,6; 93,46</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-28,21; 75,51</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,25</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,62</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,25</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>27,38%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>16,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>36,39%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,160 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 10,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 6,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,92; 14,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 61,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-14,09; 50,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,34; 88,38</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>3,29</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2,89</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>5,26</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>8,06</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>14,58%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>17,28%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>28,41%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>40,29%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-3,78; 9,87</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-2,83; 8,85</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-1,44; 11,26</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0,63; 15,19</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-14,06; 51,92</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-14,26; 64,71</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-6,55; 77,08</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1,79; 94,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P25_8-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25_8-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>8,66</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>14,67</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>5,84</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>17,2</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>57,39%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>139,77%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>35,0%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>154,91%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>9.662660785898378</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>12.45647547335865</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>5.922284874635555</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>14.38341854245744</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.6413020539502222</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>1.131728386357859</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.353123075700464</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>1.331652773962443</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-8,27; 25,85</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-1,66; 31,44</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-11,63; 25,54</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0,36; 35,18</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-35,72; 376,56</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-20,67; 914,23</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-45,26; 445,25</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-9,38; 1088,0</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-7.725529370515118</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-4.054900809977379</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-12.48440466374787</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-2.000848006990298</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.3624448248843936</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.2412346184342258</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.4729666925501499</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.1465681733743507</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>26.85783005779083</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>29.10968756240252</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>26.27692820930062</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>31.90460169928321</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>3.624365620779576</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>8.238556798124055</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>4.266623470762245</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>10.33993395471629</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>6,26</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>4,07</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>6,39</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>9,03</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>30,72%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>27,44%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>35,43%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>48,46%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-3,04; 15,67</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-4,51; 11,8</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-3,45; 15,55</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-1,78; 18,33</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-12,13; 103,86</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-23,25; 117,12</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-15,33; 112,65</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-10,47; 128,36</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>6.440566752831966</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>2.36396566819439</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>6.831814989257317</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>9.075356903104808</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.3228367265979815</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.140164145530686</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.3794057036046951</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.4803596201880707</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-2,54</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-3,03</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>3,53</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>1,96</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-9,02%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-14,03%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>17,71%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>7,41%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-3.019711183262802</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-7.123695651816053</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-2.358125308251817</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-1.367143377651454</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.1236535709412166</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.3319005424742942</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.1207542243588102</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.06438824472702755</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-15,35; 7,18</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-11,94; 6,71</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-7,95; 13,52</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-9,21; 14,96</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-42,02; 33,33</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-44,36; 39,41</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-31,6; 93,46</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-28,21; 75,51</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>15.95782676775547</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>11.52237540386293</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>16.08706995501361</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>18.19162190464088</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>1.041606646046468</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.9689141671992874</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>1.186864133964852</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.355709282496083</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +827,211 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-3.565205403892952</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-2.420952219787553</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>3.499401555665171</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>3.360381454757921</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.1222910227929347</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.1143292651482207</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.1764334710805364</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.1324167242968934</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-17.94892898017419</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-11.47352188270802</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-7.584012015472988</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-7.948143067407348</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.468190693942627</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.4365816041693923</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.3099219145916505</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.2431748414410686</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>7.597335528611232</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>7.54607864909432</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>13.85921307224188</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>16.11964753586625</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.3489213455751788</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.4616600325671655</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.9544150943591934</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.8585307882412669</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>3,29</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>2,89</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>5,26</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>8,06</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>14,58%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>17,28%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>28,41%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>40,29%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-3,78; 9,87</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-2,83; 8,85</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-1,44; 11,26</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>0,63; 15,19</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-14,06; 51,92</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-14,26; 64,71</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-6,55; 77,08</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>1,79; 94,48</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>3.007955720901734</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.959192382018257</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>5.453943335194511</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>8.026113353239451</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.1317442970054054</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.1108100417313148</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.2952569046200018</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.4069274037583215</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-4.992278717641311</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-4.247088312402345</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.9871473908177583</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.703049843372997</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.180046408946101</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.2058680629986205</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.04408745340185699</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.02588108767813114</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>9.795373397849305</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>8.089497493325736</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>11.49022776949232</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>15.17516197720099</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.5135456617647567</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.5436856351808074</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.794844804353241</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.9294956663494756</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
